--- a/honeypot_data_sheets/attacker_reports_20251021.xlsx
+++ b/honeypot_data_sheets/attacker_reports_20251021.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2465,6 +2465,64 @@
         <v>39</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>server4_1761098174.txt</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>10.172.95.111</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10.172.95.111</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:57:49.842</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>server4</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:58:32.755
+5
+echo helloooooo
+echo janae testing hee
+ls
+echo hmmmm what do we have here
+exit</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>43</v>
+      </c>
+      <c r="L44" t="n">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/honeypot_data_sheets/attacker_reports_20251021.xlsx
+++ b/honeypot_data_sheets/attacker_reports_20251021.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,30 +399,25 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>attacker_username</t>
+          <t>num_commands</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>num_commands</t>
+          <t>commands</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>commands</t>
+          <t>minutes</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>minutes</t>
+          <t>seconds</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>seconds</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>total_seconds</t>
         </is>
@@ -441,14 +436,13 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -465,14 +459,13 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -507,13 +500,12 @@
           <t>server1</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
         <is>
           <t>10.173.150.42
 2025-10-21 19:44:53.883
@@ -524,15 +516,15 @@
 exit</t>
         </is>
       </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
         <v>50</v>
       </c>
-      <c r="L4" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -565,13 +557,12 @@
           <t>server1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>2025-10-21 19:47:00.772
 2025-10-21 19:48:00.816
@@ -580,13 +571,13 @@
 cd Applications</t>
         </is>
       </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
         <v>60</v>
       </c>
     </row>
@@ -621,20 +612,19 @@
           <t>server1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
         <v>60</v>
       </c>
     </row>
@@ -669,20 +659,19 @@
           <t>server1</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
       <c r="J7" t="n">
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
         <v>61</v>
       </c>
     </row>
@@ -717,13 +706,12 @@
           <t>server1</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
         <is>
           <t>echo janae inside 137
 ls
@@ -733,13 +721,13 @@
 ls</t>
         </is>
       </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
         <v>60</v>
       </c>
     </row>
@@ -774,20 +762,19 @@
           <t>server1</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
         <v>240</v>
       </c>
     </row>
@@ -814,20 +801,19 @@
           <t>server1</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>1224</v>
+      </c>
       <c r="J10" t="n">
-        <v>1224</v>
+        <v>57</v>
       </c>
       <c r="K10" t="n">
-        <v>57</v>
-      </c>
-      <c r="L10" t="n">
         <v>73497</v>
       </c>
     </row>
@@ -862,26 +848,25 @@
           <t>server1</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
         <is>
           <t>ls
 echo hi im root
 echo i shouldnt be in her</t>
         </is>
       </c>
+      <c r="I11" t="n">
+        <v>7</v>
+      </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
         <v>420</v>
       </c>
     </row>
@@ -916,26 +901,25 @@
           <t>server1</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
           <t>echo hi
 ls
 exit</t>
         </is>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
-      </c>
-      <c r="L12" t="n">
         <v>63</v>
       </c>
     </row>
@@ -970,13 +954,12 @@
           <t>server1</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
         <is>
           <t>echo hi
 ls
@@ -984,13 +967,13 @@
 exit</t>
         </is>
       </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="K13" t="n">
-        <v>41</v>
-      </c>
-      <c r="L13" t="n">
         <v>101</v>
       </c>
     </row>
@@ -1025,13 +1008,12 @@
           <t>server1</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
         <is>
           <t>echo hi
 ls
@@ -1039,13 +1021,13 @@
 exit</t>
         </is>
       </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K14" t="n">
-        <v>10</v>
-      </c>
-      <c r="L14" t="n">
         <v>130</v>
       </c>
     </row>
@@ -1062,14 +1044,13 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1086,14 +1067,13 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,14 +1090,13 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1134,14 +1113,13 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1176,13 +1154,12 @@
           <t>server2</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
         <is>
           <t>ehco "im timing out"
 echo "im timing out"
@@ -1190,13 +1167,13 @@
 date</t>
         </is>
       </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
         <v>60</v>
       </c>
     </row>
@@ -1231,13 +1208,12 @@
           <t>server2</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
         <is>
           <t>echo "im leaving"
 ls
@@ -1245,15 +1221,15 @@
 exit</t>
         </is>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K20" t="n">
         <v>10</v>
       </c>
-      <c r="L20" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1286,13 +1262,12 @@
           <t>server2</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
         <is>
           <t>2025-10-21 14:23:04.466
 18
@@ -1316,13 +1291,13 @@
 echo "silly"</t>
         </is>
       </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
         <v>60</v>
       </c>
     </row>
@@ -1349,20 +1324,19 @@
           <t>server2</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>863</v>
+      </c>
       <c r="J22" t="n">
-        <v>863</v>
+        <v>44</v>
       </c>
       <c r="K22" t="n">
-        <v>44</v>
-      </c>
-      <c r="L22" t="n">
         <v>51824</v>
       </c>
     </row>
@@ -1397,13 +1371,12 @@
           <t>server2</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
         <is>
           <t>2025-10-21 20:07:25.178
 4
@@ -1413,15 +1386,15 @@
 exit</t>
         </is>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K23" t="n">
         <v>34</v>
       </c>
-      <c r="L23" t="n">
-        <v>34</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1454,25 +1427,24 @@
           <t>server2</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
         <is>
           <t>2025-10-21 20:09:53.250
 1</t>
         </is>
       </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
         <v>60</v>
       </c>
     </row>
@@ -1507,26 +1479,25 @@
           <t>server2</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
           <t>echo hi
 ls
 exit</t>
         </is>
       </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K25" t="n">
-        <v>11</v>
-      </c>
-      <c r="L25" t="n">
         <v>71</v>
       </c>
     </row>
@@ -1561,25 +1532,24 @@
           <t>server2</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
         <is>
           <t>echo hi
 exit</t>
         </is>
       </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="K26" t="n">
-        <v>41</v>
-      </c>
-      <c r="L26" t="n">
         <v>101</v>
       </c>
     </row>
@@ -1614,13 +1584,12 @@
           <t>server2</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
         <is>
           <t>2025-10-21 21:36:48.883
 3
@@ -1629,13 +1598,13 @@
 exit</t>
         </is>
       </c>
+      <c r="I27" t="n">
+        <v>2</v>
+      </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K27" t="n">
-        <v>11</v>
-      </c>
-      <c r="L27" t="n">
         <v>131</v>
       </c>
     </row>
@@ -1670,22 +1639,21 @@
           <t>server3</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K28" t="n">
         <v>40</v>
       </c>
-      <c r="L28" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1718,22 +1686,21 @@
           <t>server3</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K29" t="n">
         <v>40</v>
       </c>
-      <c r="L29" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1766,22 +1733,21 @@
           <t>server3</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K30" t="n">
         <v>40</v>
       </c>
-      <c r="L30" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1814,22 +1780,21 @@
           <t>server3</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K31" t="n">
         <v>40</v>
       </c>
-      <c r="L31" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1862,13 +1827,12 @@
           <t>server3</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
         <is>
           <t>cat hello
 echo hello
@@ -1882,13 +1846,13 @@
 ls</t>
         </is>
       </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
         <v>60</v>
       </c>
     </row>
@@ -1915,20 +1879,19 @@
           <t>server3</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>875</v>
+      </c>
       <c r="J33" t="n">
-        <v>875</v>
+        <v>45</v>
       </c>
       <c r="K33" t="n">
-        <v>45</v>
-      </c>
-      <c r="L33" t="n">
         <v>52545</v>
       </c>
     </row>
@@ -1963,13 +1926,12 @@
           <t>server3</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
         <is>
           <t>ls
 cd Transcripts
@@ -1986,13 +1948,13 @@
 ls</t>
         </is>
       </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
         <v>60</v>
       </c>
     </row>
@@ -2027,20 +1989,19 @@
           <t>server3</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
         <v>60</v>
       </c>
     </row>
@@ -2075,20 +2036,19 @@
           <t>server3</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
         <v>60</v>
       </c>
     </row>
@@ -2123,25 +2083,24 @@
           <t>server3</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
         <is>
           <t>echo "im in the registrar"
 ls</t>
         </is>
       </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
         <v>60</v>
       </c>
     </row>
@@ -2176,26 +2135,25 @@
           <t>server3</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
           <t>exit</t>
         </is>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="K38" t="n">
         <v>49</v>
       </c>
-      <c r="L38" t="n">
-        <v>49</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2228,24 +2186,23 @@
           <t>server3</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
           <t>exit</t>
         </is>
       </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K39" t="n">
-        <v>14</v>
-      </c>
-      <c r="L39" t="n">
         <v>74</v>
       </c>
     </row>
@@ -2280,13 +2237,12 @@
           <t>server3</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
         <is>
           <t>echo hello this is janae testing
 ls
@@ -2294,13 +2250,13 @@
 exit</t>
         </is>
       </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K40" t="n">
-        <v>7</v>
-      </c>
-      <c r="L40" t="n">
         <v>67</v>
       </c>
     </row>
@@ -2335,26 +2291,25 @@
           <t>server4</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
           <t>exit</t>
         </is>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K41" t="n">
         <v>18</v>
       </c>
-      <c r="L41" t="n">
-        <v>18</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2387,26 +2342,25 @@
           <t>server4</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
           <t>exit</t>
         </is>
       </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K42" t="n">
         <v>53</v>
       </c>
-      <c r="L42" t="n">
-        <v>53</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2439,13 +2393,12 @@
           <t>server4</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
         <is>
           <t>echo janae testing againnnnnnn
 ls
@@ -2455,15 +2408,15 @@
 exit</t>
         </is>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="K43" t="n">
         <v>39</v>
       </c>
-      <c r="L43" t="n">
-        <v>39</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2496,13 +2449,12 @@
           <t>server4</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
         <is>
           <t>2025-10-21 21:58:32.755
 5
@@ -2513,13 +2465,13 @@
 exit</t>
         </is>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K44" t="n">
-        <v>43</v>
-      </c>
-      <c r="L44" t="n">
         <v>43</v>
       </c>
     </row>
